--- a/HD-Video-Codecs.xlsx
+++ b/HD-Video-Codecs.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabien/Documents/devel/github/hd3g.tv docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="0" windowWidth="30680" windowHeight="19500" tabRatio="405"/>
+    <workbookView xWindow="12140" yWindow="460" windowWidth="26140" windowHeight="20180" tabRatio="405"/>
   </bookViews>
   <sheets>
     <sheet name="Generic" sheetId="1" r:id="rId1"/>
     <sheet name="ProRes" sheetId="4" r:id="rId2"/>
     <sheet name="DNxHD" sheetId="9" r:id="rId3"/>
+    <sheet name="DNxHR" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -21,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="270">
   <si>
     <t>Mbps</t>
   </si>
@@ -560,9 +569,6 @@
     <t>AVID DNxHD bitrate guide</t>
   </si>
   <si>
-    <t>All CBR &amp; 4:2:2</t>
-  </si>
-  <si>
     <t>In Mb/sec</t>
   </si>
   <si>
@@ -753,6 +759,87 @@
   </si>
   <si>
     <t>Only progressive, 4096x2160 version may be exists</t>
+  </si>
+  <si>
+    <t>30p</t>
+  </si>
+  <si>
+    <t>48p</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Frame size</t>
+  </si>
+  <si>
+    <t>2K (Full)</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>HQX</t>
+  </si>
+  <si>
+    <t>8 bits</t>
+  </si>
+  <si>
+    <t>1/16 res</t>
+  </si>
+  <si>
+    <t>1/4 res</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>1/16</t>
+  </si>
+  <si>
+    <t>10 bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UltraHD </t>
+  </si>
+  <si>
+    <t>4K (Full)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2K Full 35mm film scan </t>
+  </si>
+  <si>
+    <t>REC 709, 2020</t>
+  </si>
+  <si>
+    <t>Color space</t>
+  </si>
+  <si>
+    <t>DCI-P3, REC 709</t>
+  </si>
+  <si>
+    <t>All CBR &amp; 4:2:2 &amp; Rec. 709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low Bitrate Offline Quality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Quality (suitable delivery format) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Quality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Quality 10-bit (UHD/4K Broadcast-quality delivery) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finishing Quality 4:4:410-bit (Cinema-quality delivery) </t>
+  </si>
+  <si>
+    <t>AVID DNxHR bitrate guide</t>
+  </si>
+  <si>
+    <t>All CBR</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1214,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="175">
+  <cellStyleXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center"/>
@@ -1307,8 +1394,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1508,8 +1597,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1538,13 +1638,33 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="175">
+  <cellStyles count="177">
     <cellStyle name="Heading" xfId="1"/>
     <cellStyle name="Heading1" xfId="2"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
@@ -1717,11 +1837,175 @@
     <cellStyle name="Lien hypertexte visité" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="173" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Result" xfId="4"/>
     <cellStyle name="Result2" xfId="5"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFCFFC9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFB3FFCF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEEECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFCFFC9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFB3FFCF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEEECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFCFFC9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFB3FFCF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEEECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -1884,332 +2168,13 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFB3FFCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEEECFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFB3FFCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFB3FFCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEEECFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFB3FFCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFB3FFCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEEECFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFB3FFCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFB3FFCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEEECFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFB3FFCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFB3FFCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEEECFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFB3FFCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFB3FFCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEEECFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFB3FFCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2224,7 +2189,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>482600</xdr:rowOff>
     </xdr:to>
@@ -2262,14 +2227,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2575,31 +2540,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="S27" sqref="O27:S27"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="45" customHeight="1">
+    <row r="1" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="46"/>
       <c r="I1" s="51" t="s">
@@ -2609,102 +2572,102 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="9" customFormat="1" ht="13" customHeight="1">
-      <c r="A2" s="77" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="81" t="s">
+    <row r="2" spans="1:21" s="9" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="81" t="s">
+      <c r="G2" s="81"/>
+      <c r="H2" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="82" t="s">
+      <c r="J2" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="83" t="s">
+      <c r="K2" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="81" t="s">
+      <c r="L2" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="77" t="s">
+      <c r="M2" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="81" t="s">
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="86" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="9" customFormat="1" ht="13" customHeight="1">
+    <row r="3" spans="1:21" s="9" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="88" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="78">
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="83">
         <v>1080</v>
       </c>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="78">
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="83">
         <v>720</v>
       </c>
-      <c r="R3" s="79"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="84" t="s">
+      <c r="R3" s="84"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="U3" s="81"/>
-    </row>
-    <row r="4" spans="1:21" s="9" customFormat="1">
-      <c r="B4" s="88"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="81"/>
+      <c r="U3" s="86"/>
+    </row>
+    <row r="4" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="82"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="86"/>
       <c r="M4" s="28" t="s">
         <v>48</v>
       </c>
@@ -2726,15 +2689,15 @@
       <c r="S4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="85"/>
-      <c r="U4" s="81"/>
-    </row>
-    <row r="5" spans="1:21" s="10" customFormat="1">
+      <c r="T4" s="90"/>
+      <c r="U4" s="86"/>
+    </row>
+    <row r="5" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>38</v>
@@ -2748,7 +2711,7 @@
       <c r="F5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="79">
         <v>35</v>
       </c>
       <c r="H5" s="10" t="s">
@@ -2788,12 +2751,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="15" customFormat="1">
+    <row r="6" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>38</v>
@@ -2807,7 +2770,7 @@
       <c r="F6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="18">
         <v>25</v>
       </c>
       <c r="H6" s="15" t="s">
@@ -2847,12 +2810,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="15" customFormat="1">
+    <row r="7" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>38</v>
@@ -2866,7 +2829,7 @@
       <c r="F7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="18">
         <v>17.5</v>
       </c>
       <c r="H7" s="15" t="s">
@@ -2906,12 +2869,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="15" customFormat="1">
+    <row r="8" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>38</v>
@@ -2925,7 +2888,7 @@
       <c r="F8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="18">
         <v>35</v>
       </c>
       <c r="H8" s="15" t="s">
@@ -2964,12 +2927,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="15" customFormat="1">
+    <row r="9" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>38</v>
@@ -2983,7 +2946,7 @@
       <c r="F9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="18">
         <v>50</v>
       </c>
       <c r="H9" s="15" t="s">
@@ -3025,12 +2988,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="15" customFormat="1">
+    <row r="10" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>38</v>
@@ -3044,7 +3007,7 @@
       <c r="F10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="18">
         <v>50</v>
       </c>
       <c r="H10" s="15" t="s">
@@ -3086,12 +3049,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="15" customFormat="1">
+    <row r="11" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>41</v>
@@ -3102,7 +3065,7 @@
       <c r="F11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="18">
         <v>19.600000000000001</v>
       </c>
       <c r="H11" s="15" t="s">
@@ -3144,12 +3107,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="15" customFormat="1">
+    <row r="12" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>41</v>
@@ -3160,7 +3123,7 @@
       <c r="F12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="18">
         <v>24</v>
       </c>
       <c r="H12" s="15" t="s">
@@ -3202,12 +3165,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="15" customFormat="1">
+    <row r="13" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>41</v>
@@ -3218,7 +3181,7 @@
       <c r="F13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="18">
         <v>19.600000000000001</v>
       </c>
       <c r="H13" s="15" t="s">
@@ -3260,12 +3223,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="15" customFormat="1">
+    <row r="14" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>41</v>
@@ -3276,7 +3239,7 @@
       <c r="F14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="18">
         <v>24</v>
       </c>
       <c r="H14" s="15" t="s">
@@ -3318,12 +3281,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="15" customFormat="1">
+    <row r="15" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>41</v>
@@ -3334,7 +3297,7 @@
       <c r="F15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="18">
         <v>19.600000000000001</v>
       </c>
       <c r="H15" s="15" t="s">
@@ -3376,12 +3339,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="15" customFormat="1">
+    <row r="16" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>41</v>
@@ -3392,7 +3355,7 @@
       <c r="F16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="18">
         <v>24</v>
       </c>
       <c r="H16" s="15" t="s">
@@ -3434,12 +3397,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="15" customFormat="1">
+    <row r="17" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>39</v>
@@ -3450,7 +3413,7 @@
       <c r="F17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="18">
         <v>19.600000000000001</v>
       </c>
       <c r="H17" s="15" t="s">
@@ -3492,12 +3455,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="15" customFormat="1">
+    <row r="18" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>41</v>
@@ -3508,7 +3471,7 @@
       <c r="F18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="18">
         <v>24</v>
       </c>
       <c r="H18" s="15" t="s">
@@ -3550,12 +3513,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="15" customFormat="1">
+    <row r="19" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>38</v>
@@ -3566,7 +3529,7 @@
       <c r="E19" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="18">
         <v>5</v>
       </c>
       <c r="H19" s="15" t="s">
@@ -3603,12 +3566,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="15" customFormat="1">
+    <row r="20" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>38</v>
@@ -3619,7 +3582,7 @@
       <c r="E20" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="18">
         <v>9</v>
       </c>
       <c r="H20" s="15" t="s">
@@ -3656,12 +3619,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="15" customFormat="1">
+    <row r="21" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>38</v>
@@ -3672,7 +3635,7 @@
       <c r="E21" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="18">
         <v>17</v>
       </c>
       <c r="H21" s="15" t="s">
@@ -3711,12 +3674,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="15" customFormat="1">
+    <row r="22" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>38</v>
@@ -3727,7 +3690,7 @@
       <c r="E22" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="18">
         <v>17</v>
       </c>
       <c r="H22" s="15" t="s">
@@ -3766,12 +3729,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="15" customFormat="1">
+    <row r="23" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>38</v>
@@ -3782,7 +3745,7 @@
       <c r="E23" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="18">
         <v>24</v>
       </c>
       <c r="H23" s="15" t="s">
@@ -3821,12 +3784,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="15" customFormat="1">
+    <row r="24" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>38</v>
@@ -3837,7 +3800,7 @@
       <c r="E24" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="18">
         <v>24</v>
       </c>
       <c r="H24" s="15" t="s">
@@ -3876,12 +3839,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="15" customFormat="1">
+    <row r="25" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>39</v>
@@ -3895,7 +3858,7 @@
       <c r="F25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="18">
         <v>50</v>
       </c>
       <c r="H25" s="15" t="s">
@@ -3941,12 +3904,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="15" customFormat="1">
+    <row r="26" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>39</v>
@@ -3960,7 +3923,7 @@
       <c r="F26" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="18">
         <v>50</v>
       </c>
       <c r="H26" s="15" t="s">
@@ -4004,12 +3967,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="15" customFormat="1">
+    <row r="27" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>39</v>
@@ -4023,7 +3986,7 @@
       <c r="F27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="18">
         <v>100</v>
       </c>
       <c r="H27" s="15" t="s">
@@ -4069,12 +4032,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="15" customFormat="1">
+    <row r="28" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>39</v>
@@ -4088,7 +4051,7 @@
       <c r="F28" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="18">
         <v>100</v>
       </c>
       <c r="H28" s="15" t="s">
@@ -4132,12 +4095,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="15" customFormat="1">
+    <row r="29" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>39</v>
@@ -4148,7 +4111,7 @@
       <c r="E29" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="18">
         <v>25</v>
       </c>
       <c r="H29" s="15" t="s">
@@ -4188,12 +4151,12 @@
       </c>
       <c r="U29" s="22"/>
     </row>
-    <row r="30" spans="1:21" s="15" customFormat="1">
+    <row r="30" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>39</v>
@@ -4204,7 +4167,7 @@
       <c r="E30" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="18">
         <v>226</v>
       </c>
       <c r="H30" s="15" t="s">
@@ -4246,12 +4209,12 @@
       </c>
       <c r="U30" s="22"/>
     </row>
-    <row r="31" spans="1:21" s="15" customFormat="1">
+    <row r="31" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>39</v>
@@ -4263,7 +4226,7 @@
         <f>"4:4:4"</f>
         <v>4:4:4</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="18">
         <v>200</v>
       </c>
       <c r="H31" s="15" t="s">
@@ -4304,12 +4267,12 @@
       </c>
       <c r="U31" s="22"/>
     </row>
-    <row r="32" spans="1:21" s="15" customFormat="1">
+    <row r="32" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>40</v>
@@ -4323,7 +4286,7 @@
       <c r="F32" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="18">
         <v>19.7</v>
       </c>
       <c r="H32" s="15" t="s">
@@ -4365,12 +4328,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="15" customFormat="1">
+    <row r="33" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>40</v>
@@ -4384,7 +4347,7 @@
       <c r="F33" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="18">
         <v>25</v>
       </c>
       <c r="H33" s="15" t="s">
@@ -4426,12 +4389,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="15" customFormat="1">
+    <row r="34" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>39</v>
@@ -4445,7 +4408,7 @@
       <c r="F34" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="18">
         <v>100</v>
       </c>
       <c r="H34" s="15" t="s">
@@ -4484,12 +4447,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="15" customFormat="1">
+    <row r="35" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>39</v>
@@ -4503,7 +4466,7 @@
       <c r="F35" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="18">
         <v>100</v>
       </c>
       <c r="H35" s="15" t="s">
@@ -4542,12 +4505,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="15" customFormat="1">
+    <row r="36" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>38</v>
@@ -4558,7 +4521,7 @@
       <c r="F36" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="18">
         <v>144</v>
       </c>
       <c r="H36" s="15" t="s">
@@ -4597,12 +4560,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="15" customFormat="1">
+    <row r="37" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>38</v>
@@ -4616,7 +4579,7 @@
       <c r="F37" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="18">
         <v>440</v>
       </c>
       <c r="H37" s="15" t="s">
@@ -4660,12 +4623,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="15" customFormat="1">
+    <row r="38" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>38</v>
@@ -4679,7 +4642,7 @@
       <c r="F38" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="18">
         <v>440</v>
       </c>
       <c r="H38" s="15" t="s">
@@ -4723,12 +4686,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="15" customFormat="1">
+    <row r="39" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>38</v>
@@ -4742,7 +4705,7 @@
       <c r="F39" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="18">
         <v>880</v>
       </c>
       <c r="H39" s="15" t="s">
@@ -4788,12 +4751,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="15" customFormat="1">
+    <row r="40" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>38</v>
@@ -4807,7 +4770,7 @@
       <c r="F40" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="18">
         <v>880</v>
       </c>
       <c r="H40" s="15" t="s">
@@ -4853,12 +4816,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="15" customFormat="1">
+    <row r="41" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>38</v>
@@ -4872,7 +4835,7 @@
       <c r="F41" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="18">
         <v>183</v>
       </c>
       <c r="H41" s="15" t="s">
@@ -4914,12 +4877,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="15" customFormat="1">
+    <row r="42" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>38</v>
@@ -4933,7 +4896,7 @@
       <c r="F42" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="18">
         <v>366</v>
       </c>
       <c r="H42" s="15" t="s">
@@ -4973,9 +4936,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="15" customFormat="1">
+    <row r="43" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>94</v>
@@ -4992,7 +4955,7 @@
       <c r="F43" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="18" t="s">
         <v>79</v>
       </c>
       <c r="H43" s="15" t="s">
@@ -5038,9 +5001,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="15" customFormat="1">
+    <row r="44" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>94</v>
@@ -5057,7 +5020,7 @@
       <c r="F44" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="18" t="s">
         <v>79</v>
       </c>
       <c r="H44" s="15" t="s">
@@ -5103,9 +5066,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="15" customFormat="1">
+    <row r="45" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>94</v>
@@ -5122,7 +5085,7 @@
       <c r="F45" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="18" t="s">
         <v>79</v>
       </c>
       <c r="H45" s="15" t="s">
@@ -5168,9 +5131,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="15" customFormat="1">
+    <row r="46" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>94</v>
@@ -5187,7 +5150,7 @@
       <c r="F46" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="18" t="s">
         <v>79</v>
       </c>
       <c r="H46" s="15" t="s">
@@ -5233,9 +5196,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="15" customFormat="1">
+    <row r="47" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>94</v>
@@ -5252,7 +5215,7 @@
       <c r="F47" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="18" t="s">
         <v>79</v>
       </c>
       <c r="H47" s="15" t="s">
@@ -5298,9 +5261,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="15" customFormat="1">
+    <row r="48" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>94</v>
@@ -5317,7 +5280,7 @@
       <c r="F48" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="18" t="s">
         <v>79</v>
       </c>
       <c r="H48" s="15" t="s">
@@ -5363,9 +5326,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="15" customFormat="1">
+    <row r="49" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>94</v>
@@ -5379,7 +5342,7 @@
       <c r="F49" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G49" s="18" t="s">
         <v>84</v>
       </c>
       <c r="H49" s="15" t="s">
@@ -5425,9 +5388,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="15" customFormat="1">
+    <row r="50" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>94</v>
@@ -5441,7 +5404,7 @@
       <c r="F50" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="18" t="s">
         <v>84</v>
       </c>
       <c r="H50" s="15" t="s">
@@ -5487,9 +5450,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="15" customFormat="1">
+    <row r="51" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>94</v>
@@ -5503,7 +5466,7 @@
       <c r="F51" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="18" t="s">
         <v>84</v>
       </c>
       <c r="H51" s="15" t="s">
@@ -5549,9 +5512,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="15" customFormat="1">
+    <row r="52" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>94</v>
@@ -5565,7 +5528,7 @@
       <c r="F52" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="18" t="s">
         <v>84</v>
       </c>
       <c r="H52" s="15" t="s">
@@ -5611,9 +5574,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="15" customFormat="1">
+    <row r="53" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>94</v>
@@ -5627,7 +5590,7 @@
       <c r="F53" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="15" t="s">
+      <c r="G53" s="18" t="s">
         <v>84</v>
       </c>
       <c r="H53" s="15" t="s">
@@ -5673,9 +5636,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="15" customFormat="1">
+    <row r="54" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>94</v>
@@ -5689,7 +5652,7 @@
       <c r="F54" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="G54" s="18" t="s">
         <v>84</v>
       </c>
       <c r="H54" s="15" t="s">
@@ -5735,9 +5698,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="15" customFormat="1">
+    <row r="55" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>94</v>
@@ -5751,7 +5714,7 @@
       <c r="F55" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="G55" s="18" t="s">
         <v>84</v>
       </c>
       <c r="H55" s="15" t="s">
@@ -5797,9 +5760,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="15" customFormat="1">
+    <row r="56" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>94</v>
@@ -5813,7 +5776,7 @@
       <c r="F56" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="15" t="s">
+      <c r="G56" s="18" t="s">
         <v>84</v>
       </c>
       <c r="H56" s="15" t="s">
@@ -5859,9 +5822,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="23" customFormat="1">
+    <row r="57" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>94</v>
@@ -5875,7 +5838,7 @@
       <c r="F57" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="23" t="s">
+      <c r="G57" s="80" t="s">
         <v>84</v>
       </c>
       <c r="H57" s="23" t="s">
@@ -5921,33 +5884,33 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="23" customFormat="1">
+    <row r="58" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C58" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="D58" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F58" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="18">
         <v>0.104</v>
       </c>
       <c r="H58" s="15" t="s">
         <v>42</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J58" s="16" t="s">
         <v>5</v>
@@ -5956,7 +5919,7 @@
         <v>8</v>
       </c>
       <c r="L58" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M58" s="34" t="s">
         <v>125</v>
@@ -5981,36 +5944,36 @@
       </c>
       <c r="T58" s="43"/>
       <c r="U58" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" s="5" customFormat="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C59" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="D59" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F59" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="18">
         <v>0.58599999999999997</v>
       </c>
       <c r="H59" s="15" t="s">
         <v>42</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J59" s="16" t="s">
         <v>5</v>
@@ -6019,7 +5982,7 @@
         <v>8</v>
       </c>
       <c r="L59" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M59" s="34" t="s">
         <v>125</v>
@@ -6044,36 +6007,36 @@
       </c>
       <c r="T59" s="43"/>
       <c r="U59" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" s="5" customFormat="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="C60" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="D60" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="18">
         <v>0.97399999999999998</v>
       </c>
       <c r="H60" s="15" t="s">
         <v>42</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J60" s="16" t="s">
         <v>5</v>
@@ -6082,7 +6045,7 @@
         <v>8</v>
       </c>
       <c r="L60" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M60" s="34" t="s">
         <v>125</v>
@@ -6107,36 +6070,36 @@
       </c>
       <c r="T60" s="43"/>
       <c r="U60" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C61" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="D61" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F61" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="18">
         <v>2.673</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>42</v>
       </c>
       <c r="I61" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J61" s="16" t="s">
         <v>5</v>
@@ -6170,36 +6133,36 @@
       </c>
       <c r="T61" s="43"/>
       <c r="U61" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" s="23" customFormat="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="C62" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C62" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="D62" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F62" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="18">
         <v>3.6760000000000002</v>
       </c>
       <c r="H62" s="15" t="s">
         <v>42</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J62" s="16" t="s">
         <v>5</v>
@@ -6233,36 +6196,36 @@
       </c>
       <c r="T62" s="43"/>
       <c r="U62" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" s="5" customFormat="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="C63" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C63" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="D63" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F63" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G63" s="18">
         <v>5.6859999999999999</v>
       </c>
       <c r="H63" s="15" t="s">
         <v>42</v>
       </c>
       <c r="I63" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J63" s="16" t="s">
         <v>5</v>
@@ -6271,7 +6234,7 @@
         <v>8</v>
       </c>
       <c r="L63" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M63" s="34" t="s">
         <v>125</v>
@@ -6296,36 +6259,36 @@
       </c>
       <c r="T63" s="43"/>
       <c r="U63" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" s="5" customFormat="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="C64" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="D64" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="D64" s="15" t="s">
-        <v>205</v>
-      </c>
       <c r="E64" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G64" s="18">
         <v>20.248000000000001</v>
       </c>
       <c r="H64" s="15" t="s">
         <v>42</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J64" s="16" t="s">
         <v>5</v>
@@ -6359,36 +6322,36 @@
       </c>
       <c r="T64" s="43"/>
       <c r="U64" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" s="23" customFormat="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B65" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="C65" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C65" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="D65" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G65" s="18">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I65" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J65" s="16" t="s">
         <v>5</v>
@@ -6397,7 +6360,7 @@
         <v>8</v>
       </c>
       <c r="L65" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M65" s="34" t="s">
         <v>125</v>
@@ -6422,36 +6385,36 @@
       </c>
       <c r="T65" s="43"/>
       <c r="U65" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" s="5" customFormat="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="C66" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C66" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="D66" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F66" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G66" s="18">
         <v>0.16900000000000001</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J66" s="16" t="s">
         <v>5</v>
@@ -6460,7 +6423,7 @@
         <v>8</v>
       </c>
       <c r="L66" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M66" s="34" t="s">
         <v>125</v>
@@ -6485,36 +6448,36 @@
       </c>
       <c r="T66" s="43"/>
       <c r="U66" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" s="5" customFormat="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C67" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="D67" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G67" s="18">
         <v>0.65100000000000002</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J67" s="16" t="s">
         <v>5</v>
@@ -6523,7 +6486,7 @@
         <v>8</v>
       </c>
       <c r="L67" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M67" s="34" t="s">
         <v>125</v>
@@ -6548,36 +6511,36 @@
       </c>
       <c r="T67" s="43"/>
       <c r="U67" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="C68" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C68" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="D68" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G68" s="18">
         <v>1.25</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J68" s="16" t="s">
         <v>5</v>
@@ -6611,36 +6574,36 @@
       </c>
       <c r="T68" s="43"/>
       <c r="U68" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" s="23" customFormat="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C69" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="D69" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F69" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G69" s="18">
         <v>2.0539999999999998</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I69" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J69" s="16" t="s">
         <v>5</v>
@@ -6674,36 +6637,36 @@
       </c>
       <c r="T69" s="43"/>
       <c r="U69" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" s="5" customFormat="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="C70" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C70" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="D70" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F70" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G70" s="18">
         <v>6.3949999999999996</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I70" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J70" s="16" t="s">
         <v>5</v>
@@ -6712,7 +6675,7 @@
         <v>8</v>
       </c>
       <c r="L70" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M70" s="34" t="s">
         <v>125</v>
@@ -6737,36 +6700,36 @@
       </c>
       <c r="T70" s="43"/>
       <c r="U70" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" s="5" customFormat="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="D71" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="D71" s="15" t="s">
-        <v>205</v>
-      </c>
       <c r="E71" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="18">
         <v>10.292999999999999</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J71" s="16" t="s">
         <v>5</v>
@@ -6800,36 +6763,36 @@
       </c>
       <c r="T71" s="43"/>
       <c r="U71" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" s="23" customFormat="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C72" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="D72" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G72" s="18">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="H72" s="15" t="s">
         <v>129</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J72" s="16" t="s">
         <v>5</v>
@@ -6838,7 +6801,7 @@
         <v>8</v>
       </c>
       <c r="L72" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M72" s="34" t="s">
         <v>125</v>
@@ -6863,36 +6826,36 @@
       </c>
       <c r="T72" s="43"/>
       <c r="U72" s="15" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" s="5" customFormat="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B73" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="C73" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C73" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="D73" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="18">
         <v>0.19400000000000001</v>
       </c>
       <c r="H73" s="15" t="s">
         <v>129</v>
       </c>
       <c r="I73" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J73" s="16" t="s">
         <v>5</v>
@@ -6901,7 +6864,7 @@
         <v>8</v>
       </c>
       <c r="L73" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M73" s="34" t="s">
         <v>125</v>
@@ -6926,36 +6889,36 @@
       </c>
       <c r="T73" s="43"/>
       <c r="U73" s="15" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" s="5" customFormat="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="C74" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C74" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="D74" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G74" s="18">
         <v>0.28399999999999997</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J74" s="16" t="s">
         <v>5</v>
@@ -6964,7 +6927,7 @@
         <v>8</v>
       </c>
       <c r="L74" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M74" s="34" t="s">
         <v>125</v>
@@ -6989,34 +6952,34 @@
       </c>
       <c r="T74" s="43"/>
       <c r="U74" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" s="5" customFormat="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F75" s="15"/>
-      <c r="G75" s="15">
+      <c r="G75" s="18">
         <v>100</v>
       </c>
       <c r="H75" s="15" t="s">
         <v>42</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J75" s="16" t="s">
         <v>5</v>
@@ -7049,37 +7012,37 @@
         <v>125</v>
       </c>
       <c r="T75" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U75" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" s="5" customFormat="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F76" s="15"/>
-      <c r="G76" s="15">
+      <c r="G76" s="18">
         <v>150</v>
       </c>
       <c r="H76" s="15" t="s">
         <v>42</v>
       </c>
       <c r="I76" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J76" s="16" t="s">
         <v>5</v>
@@ -7112,36 +7075,36 @@
         <v>125</v>
       </c>
       <c r="T76" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U76" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" s="5" customFormat="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F77" s="15"/>
-      <c r="G77" s="15">
+      <c r="G77" s="18">
         <v>240</v>
       </c>
       <c r="H77" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I77" s="89" t="s">
+      <c r="I77" s="78" t="s">
         <v>23</v>
       </c>
       <c r="J77" s="16" t="s">
@@ -7175,36 +7138,36 @@
         <v>125</v>
       </c>
       <c r="T77" s="43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U77" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" s="5" customFormat="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F78" s="15"/>
-      <c r="G78" s="15">
+      <c r="G78" s="18">
         <v>250</v>
       </c>
       <c r="H78" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I78" s="89" t="s">
+      <c r="I78" s="78" t="s">
         <v>23</v>
       </c>
       <c r="J78" s="16" t="s">
@@ -7241,33 +7204,33 @@
         <v>25</v>
       </c>
       <c r="U78" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" s="5" customFormat="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F79" s="15"/>
-      <c r="G79" s="15">
+      <c r="G79" s="18">
         <v>300</v>
       </c>
       <c r="H79" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I79" s="89" t="s">
+      <c r="I79" s="78" t="s">
         <v>23</v>
       </c>
       <c r="J79" s="16" t="s">
@@ -7301,36 +7264,36 @@
         <v>125</v>
       </c>
       <c r="T79" s="43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U79" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" s="5" customFormat="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F80" s="15"/>
-      <c r="G80" s="15">
+      <c r="G80" s="18">
         <v>500</v>
       </c>
       <c r="H80" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I80" s="89" t="s">
+      <c r="I80" s="78" t="s">
         <v>23</v>
       </c>
       <c r="J80" s="16" t="s">
@@ -7367,33 +7330,33 @@
         <v>50</v>
       </c>
       <c r="U80" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" s="5" customFormat="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F81" s="15"/>
-      <c r="G81" s="15">
+      <c r="G81" s="18">
         <v>600</v>
       </c>
       <c r="H81" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I81" s="89" t="s">
+      <c r="I81" s="78" t="s">
         <v>23</v>
       </c>
       <c r="J81" s="16" t="s">
@@ -7427,13 +7390,13 @@
         <v>125</v>
       </c>
       <c r="T81" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="U81" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="U81" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" s="5" customFormat="1">
+    </row>
+    <row r="82" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="10"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -7442,7 +7405,7 @@
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
-      <c r="I82" s="89"/>
+      <c r="I82" s="78"/>
       <c r="J82" s="16"/>
       <c r="K82" s="17"/>
       <c r="L82" s="18"/>
@@ -7456,7 +7419,7 @@
       <c r="T82" s="43"/>
       <c r="U82" s="15"/>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A83" s="10"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -7479,7 +7442,7 @@
       <c r="T83" s="43"/>
       <c r="U83" s="15"/>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -7502,7 +7465,7 @@
       <c r="T84" s="49"/>
       <c r="U84" s="5"/>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -7525,364 +7488,364 @@
       <c r="T85" s="49"/>
       <c r="U85" s="5"/>
     </row>
-    <row r="86" spans="1:21" s="87" customFormat="1" ht="14" customHeight="1">
-      <c r="A86" s="87" t="s">
+    <row r="86" spans="1:21" s="77" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="77" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="2" customFormat="1" ht="14">
-      <c r="A87" s="87" t="s">
+    <row r="87" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B87" s="87"/>
-      <c r="D87" s="87"/>
-      <c r="E87" s="87"/>
-      <c r="F87" s="87"/>
-      <c r="G87" s="87"/>
-      <c r="H87" s="87"/>
-      <c r="I87" s="87"/>
-      <c r="J87" s="87"/>
-      <c r="K87" s="87"/>
-      <c r="L87" s="87"/>
-      <c r="M87" s="87"/>
-      <c r="N87" s="87"/>
-      <c r="O87" s="87"/>
-      <c r="P87" s="87"/>
-      <c r="Q87" s="87"/>
-      <c r="R87" s="87"/>
-      <c r="S87" s="87"/>
-      <c r="T87" s="87"/>
-      <c r="U87" s="87"/>
-    </row>
-    <row r="88" spans="1:21" s="2" customFormat="1" ht="14">
-      <c r="A88" s="87" t="s">
+      <c r="B87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="77"/>
+      <c r="I87" s="77"/>
+      <c r="J87" s="77"/>
+      <c r="K87" s="77"/>
+      <c r="L87" s="77"/>
+      <c r="M87" s="77"/>
+      <c r="N87" s="77"/>
+      <c r="O87" s="77"/>
+      <c r="P87" s="77"/>
+      <c r="Q87" s="77"/>
+      <c r="R87" s="77"/>
+      <c r="S87" s="77"/>
+      <c r="T87" s="77"/>
+      <c r="U87" s="77"/>
+    </row>
+    <row r="88" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="B88" s="87"/>
-      <c r="D88" s="87"/>
-      <c r="E88" s="87"/>
-      <c r="F88" s="87"/>
-      <c r="G88" s="87"/>
-      <c r="H88" s="87"/>
-      <c r="I88" s="87"/>
-      <c r="J88" s="87"/>
-      <c r="K88" s="87"/>
-      <c r="L88" s="87"/>
-      <c r="M88" s="87"/>
-      <c r="N88" s="87"/>
-      <c r="O88" s="87"/>
-      <c r="P88" s="87"/>
-      <c r="Q88" s="87"/>
-      <c r="R88" s="87"/>
-      <c r="S88" s="87"/>
-      <c r="T88" s="87"/>
-      <c r="U88" s="87"/>
-    </row>
-    <row r="89" spans="1:21" s="2" customFormat="1" ht="14">
-      <c r="A89" s="87" t="s">
+      <c r="B88" s="77"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="77"/>
+      <c r="H88" s="77"/>
+      <c r="I88" s="77"/>
+      <c r="J88" s="77"/>
+      <c r="K88" s="77"/>
+      <c r="L88" s="77"/>
+      <c r="M88" s="77"/>
+      <c r="N88" s="77"/>
+      <c r="O88" s="77"/>
+      <c r="P88" s="77"/>
+      <c r="Q88" s="77"/>
+      <c r="R88" s="77"/>
+      <c r="S88" s="77"/>
+      <c r="T88" s="77"/>
+      <c r="U88" s="77"/>
+    </row>
+    <row r="89" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="B89" s="87"/>
-      <c r="D89" s="87"/>
-      <c r="E89" s="87"/>
-      <c r="F89" s="87"/>
-      <c r="G89" s="87"/>
-      <c r="H89" s="87"/>
-      <c r="I89" s="87"/>
-      <c r="J89" s="87"/>
-      <c r="K89" s="87"/>
-      <c r="L89" s="87"/>
-      <c r="M89" s="87"/>
-      <c r="N89" s="87"/>
-      <c r="O89" s="87"/>
-      <c r="P89" s="87"/>
-      <c r="Q89" s="87"/>
-      <c r="R89" s="87"/>
-      <c r="S89" s="87"/>
-      <c r="T89" s="87"/>
-      <c r="U89" s="87"/>
-    </row>
-    <row r="90" spans="1:21" s="2" customFormat="1" ht="14">
-      <c r="A90" s="87" t="s">
+      <c r="B89" s="77"/>
+      <c r="D89" s="77"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="77"/>
+      <c r="I89" s="77"/>
+      <c r="J89" s="77"/>
+      <c r="K89" s="77"/>
+      <c r="L89" s="77"/>
+      <c r="M89" s="77"/>
+      <c r="N89" s="77"/>
+      <c r="O89" s="77"/>
+      <c r="P89" s="77"/>
+      <c r="Q89" s="77"/>
+      <c r="R89" s="77"/>
+      <c r="S89" s="77"/>
+      <c r="T89" s="77"/>
+      <c r="U89" s="77"/>
+    </row>
+    <row r="90" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B90" s="87"/>
-      <c r="D90" s="87"/>
-      <c r="E90" s="87"/>
-      <c r="F90" s="87"/>
-      <c r="G90" s="87"/>
-      <c r="H90" s="87"/>
-      <c r="I90" s="87"/>
-      <c r="J90" s="87"/>
-      <c r="K90" s="87"/>
-      <c r="L90" s="87"/>
-      <c r="M90" s="87"/>
-      <c r="N90" s="87"/>
-      <c r="O90" s="87"/>
-      <c r="P90" s="87"/>
-      <c r="Q90" s="87"/>
-      <c r="R90" s="87"/>
-      <c r="S90" s="87"/>
-      <c r="T90" s="87"/>
-      <c r="U90" s="87"/>
-    </row>
-    <row r="91" spans="1:21" s="2" customFormat="1" ht="14">
-      <c r="A91" s="87" t="s">
+      <c r="B90" s="77"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="77"/>
+      <c r="H90" s="77"/>
+      <c r="I90" s="77"/>
+      <c r="J90" s="77"/>
+      <c r="K90" s="77"/>
+      <c r="L90" s="77"/>
+      <c r="M90" s="77"/>
+      <c r="N90" s="77"/>
+      <c r="O90" s="77"/>
+      <c r="P90" s="77"/>
+      <c r="Q90" s="77"/>
+      <c r="R90" s="77"/>
+      <c r="S90" s="77"/>
+      <c r="T90" s="77"/>
+      <c r="U90" s="77"/>
+    </row>
+    <row r="91" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="B91" s="87"/>
-      <c r="D91" s="87"/>
-      <c r="E91" s="87"/>
-      <c r="F91" s="87"/>
-      <c r="G91" s="87"/>
-      <c r="H91" s="87"/>
-      <c r="I91" s="87"/>
-      <c r="J91" s="87"/>
-      <c r="K91" s="87"/>
-      <c r="L91" s="87"/>
-      <c r="M91" s="87"/>
-      <c r="N91" s="87"/>
-      <c r="O91" s="87"/>
-      <c r="P91" s="87"/>
-      <c r="Q91" s="87"/>
-      <c r="R91" s="87"/>
-      <c r="S91" s="87"/>
-      <c r="T91" s="87"/>
-      <c r="U91" s="87"/>
-    </row>
-    <row r="92" spans="1:21" s="2" customFormat="1" ht="14">
-      <c r="A92" s="87" t="s">
+      <c r="B91" s="77"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="77"/>
+      <c r="G91" s="77"/>
+      <c r="H91" s="77"/>
+      <c r="I91" s="77"/>
+      <c r="J91" s="77"/>
+      <c r="K91" s="77"/>
+      <c r="L91" s="77"/>
+      <c r="M91" s="77"/>
+      <c r="N91" s="77"/>
+      <c r="O91" s="77"/>
+      <c r="P91" s="77"/>
+      <c r="Q91" s="77"/>
+      <c r="R91" s="77"/>
+      <c r="S91" s="77"/>
+      <c r="T91" s="77"/>
+      <c r="U91" s="77"/>
+    </row>
+    <row r="92" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="B92" s="87"/>
-      <c r="D92" s="87"/>
-      <c r="E92" s="87"/>
-      <c r="F92" s="87"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="87"/>
-      <c r="I92" s="87"/>
-      <c r="J92" s="87"/>
-      <c r="K92" s="87"/>
-      <c r="L92" s="87"/>
-      <c r="M92" s="87"/>
-      <c r="N92" s="87"/>
-      <c r="O92" s="87"/>
-      <c r="P92" s="87"/>
-      <c r="Q92" s="87"/>
-      <c r="R92" s="87"/>
-      <c r="S92" s="87"/>
-      <c r="T92" s="87"/>
-      <c r="U92" s="87"/>
-    </row>
-    <row r="93" spans="1:21" s="2" customFormat="1" ht="14">
-      <c r="A93" s="87" t="s">
+      <c r="B92" s="77"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="77"/>
+      <c r="F92" s="77"/>
+      <c r="G92" s="77"/>
+      <c r="H92" s="77"/>
+      <c r="I92" s="77"/>
+      <c r="J92" s="77"/>
+      <c r="K92" s="77"/>
+      <c r="L92" s="77"/>
+      <c r="M92" s="77"/>
+      <c r="N92" s="77"/>
+      <c r="O92" s="77"/>
+      <c r="P92" s="77"/>
+      <c r="Q92" s="77"/>
+      <c r="R92" s="77"/>
+      <c r="S92" s="77"/>
+      <c r="T92" s="77"/>
+      <c r="U92" s="77"/>
+    </row>
+    <row r="93" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B93" s="87"/>
-      <c r="D93" s="87"/>
-      <c r="E93" s="87"/>
-      <c r="F93" s="87"/>
-      <c r="G93" s="87"/>
-      <c r="H93" s="87"/>
-      <c r="I93" s="87"/>
-      <c r="J93" s="87"/>
-      <c r="K93" s="87"/>
-      <c r="L93" s="87"/>
-      <c r="M93" s="87"/>
-      <c r="N93" s="87"/>
-      <c r="O93" s="87"/>
-      <c r="P93" s="87"/>
-      <c r="Q93" s="87"/>
-      <c r="R93" s="87"/>
-      <c r="S93" s="87"/>
-      <c r="T93" s="87"/>
-      <c r="U93" s="87"/>
-    </row>
-    <row r="94" spans="1:21" s="2" customFormat="1" ht="14">
-      <c r="A94" s="87" t="s">
+      <c r="B93" s="77"/>
+      <c r="D93" s="77"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="77"/>
+      <c r="G93" s="77"/>
+      <c r="H93" s="77"/>
+      <c r="I93" s="77"/>
+      <c r="J93" s="77"/>
+      <c r="K93" s="77"/>
+      <c r="L93" s="77"/>
+      <c r="M93" s="77"/>
+      <c r="N93" s="77"/>
+      <c r="O93" s="77"/>
+      <c r="P93" s="77"/>
+      <c r="Q93" s="77"/>
+      <c r="R93" s="77"/>
+      <c r="S93" s="77"/>
+      <c r="T93" s="77"/>
+      <c r="U93" s="77"/>
+    </row>
+    <row r="94" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B94" s="87"/>
-      <c r="D94" s="87"/>
-      <c r="E94" s="87"/>
-      <c r="F94" s="87"/>
-      <c r="G94" s="87"/>
-      <c r="H94" s="87"/>
-      <c r="I94" s="87"/>
-      <c r="J94" s="87"/>
-      <c r="K94" s="87"/>
-      <c r="L94" s="87"/>
-      <c r="M94" s="87"/>
-      <c r="N94" s="87"/>
-      <c r="O94" s="87"/>
-      <c r="P94" s="87"/>
-      <c r="Q94" s="87"/>
-      <c r="R94" s="87"/>
-      <c r="S94" s="87"/>
-      <c r="T94" s="87"/>
-      <c r="U94" s="87"/>
-    </row>
-    <row r="95" spans="1:21" s="2" customFormat="1" ht="14">
-      <c r="A95" s="87" t="s">
+      <c r="B94" s="77"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="77"/>
+      <c r="H94" s="77"/>
+      <c r="I94" s="77"/>
+      <c r="J94" s="77"/>
+      <c r="K94" s="77"/>
+      <c r="L94" s="77"/>
+      <c r="M94" s="77"/>
+      <c r="N94" s="77"/>
+      <c r="O94" s="77"/>
+      <c r="P94" s="77"/>
+      <c r="Q94" s="77"/>
+      <c r="R94" s="77"/>
+      <c r="S94" s="77"/>
+      <c r="T94" s="77"/>
+      <c r="U94" s="77"/>
+    </row>
+    <row r="95" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B95" s="87"/>
-      <c r="D95" s="87"/>
-      <c r="E95" s="87"/>
-      <c r="F95" s="87"/>
-      <c r="G95" s="87"/>
-      <c r="H95" s="87"/>
-      <c r="I95" s="87"/>
-      <c r="J95" s="87"/>
-      <c r="K95" s="87"/>
-      <c r="L95" s="87"/>
-      <c r="M95" s="87"/>
-      <c r="N95" s="87"/>
-      <c r="O95" s="87"/>
-      <c r="P95" s="87"/>
-      <c r="Q95" s="87"/>
-      <c r="R95" s="87"/>
-      <c r="S95" s="87"/>
-      <c r="T95" s="87"/>
-      <c r="U95" s="87"/>
-    </row>
-    <row r="96" spans="1:21" s="2" customFormat="1" ht="14">
-      <c r="A96" s="87" t="s">
+      <c r="B95" s="77"/>
+      <c r="D95" s="77"/>
+      <c r="E95" s="77"/>
+      <c r="F95" s="77"/>
+      <c r="G95" s="77"/>
+      <c r="H95" s="77"/>
+      <c r="I95" s="77"/>
+      <c r="J95" s="77"/>
+      <c r="K95" s="77"/>
+      <c r="L95" s="77"/>
+      <c r="M95" s="77"/>
+      <c r="N95" s="77"/>
+      <c r="O95" s="77"/>
+      <c r="P95" s="77"/>
+      <c r="Q95" s="77"/>
+      <c r="R95" s="77"/>
+      <c r="S95" s="77"/>
+      <c r="T95" s="77"/>
+      <c r="U95" s="77"/>
+    </row>
+    <row r="96" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="B96" s="87"/>
-      <c r="D96" s="87"/>
-      <c r="E96" s="87"/>
-      <c r="F96" s="87"/>
-      <c r="G96" s="87"/>
-      <c r="H96" s="87"/>
-      <c r="I96" s="87"/>
-      <c r="J96" s="87"/>
-      <c r="K96" s="87"/>
-      <c r="L96" s="87"/>
-      <c r="M96" s="87"/>
-      <c r="N96" s="87"/>
-      <c r="O96" s="87"/>
-      <c r="P96" s="87"/>
-      <c r="Q96" s="87"/>
-      <c r="R96" s="87"/>
-      <c r="S96" s="87"/>
-      <c r="T96" s="87"/>
-      <c r="U96" s="87"/>
-    </row>
-    <row r="97" spans="1:21" s="2" customFormat="1" ht="14">
-      <c r="A97" s="87" t="s">
+      <c r="B96" s="77"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="77"/>
+      <c r="H96" s="77"/>
+      <c r="I96" s="77"/>
+      <c r="J96" s="77"/>
+      <c r="K96" s="77"/>
+      <c r="L96" s="77"/>
+      <c r="M96" s="77"/>
+      <c r="N96" s="77"/>
+      <c r="O96" s="77"/>
+      <c r="P96" s="77"/>
+      <c r="Q96" s="77"/>
+      <c r="R96" s="77"/>
+      <c r="S96" s="77"/>
+      <c r="T96" s="77"/>
+      <c r="U96" s="77"/>
+    </row>
+    <row r="97" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B97" s="87"/>
-      <c r="D97" s="87"/>
-      <c r="E97" s="87"/>
-      <c r="F97" s="87"/>
-      <c r="G97" s="87"/>
-      <c r="H97" s="87"/>
-      <c r="I97" s="87"/>
-      <c r="J97" s="87"/>
-      <c r="K97" s="87"/>
-      <c r="L97" s="87"/>
-      <c r="M97" s="87"/>
-      <c r="N97" s="87"/>
-      <c r="O97" s="87"/>
-      <c r="P97" s="87"/>
-      <c r="Q97" s="87"/>
-      <c r="R97" s="87"/>
-      <c r="S97" s="87"/>
-      <c r="T97" s="87"/>
-      <c r="U97" s="87"/>
-    </row>
-    <row r="98" spans="1:21" s="2" customFormat="1" ht="14">
-      <c r="A98" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="B98" s="87"/>
-      <c r="D98" s="87"/>
-      <c r="E98" s="87"/>
-      <c r="F98" s="87"/>
-      <c r="G98" s="87"/>
-      <c r="H98" s="87"/>
-      <c r="I98" s="87"/>
-      <c r="J98" s="87"/>
-      <c r="K98" s="87"/>
-      <c r="L98" s="87"/>
-      <c r="M98" s="87"/>
-      <c r="N98" s="87"/>
-      <c r="O98" s="87"/>
-      <c r="P98" s="87"/>
-      <c r="Q98" s="87"/>
-      <c r="R98" s="87"/>
-      <c r="S98" s="87"/>
-      <c r="T98" s="87"/>
-      <c r="U98" s="87"/>
-    </row>
-    <row r="99" spans="1:21" s="2" customFormat="1" ht="14">
-      <c r="A99" s="87" t="s">
+      <c r="B97" s="77"/>
+      <c r="D97" s="77"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="77"/>
+      <c r="G97" s="77"/>
+      <c r="H97" s="77"/>
+      <c r="I97" s="77"/>
+      <c r="J97" s="77"/>
+      <c r="K97" s="77"/>
+      <c r="L97" s="77"/>
+      <c r="M97" s="77"/>
+      <c r="N97" s="77"/>
+      <c r="O97" s="77"/>
+      <c r="P97" s="77"/>
+      <c r="Q97" s="77"/>
+      <c r="R97" s="77"/>
+      <c r="S97" s="77"/>
+      <c r="T97" s="77"/>
+      <c r="U97" s="77"/>
+    </row>
+    <row r="98" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" s="77"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="77"/>
+      <c r="F98" s="77"/>
+      <c r="G98" s="77"/>
+      <c r="H98" s="77"/>
+      <c r="I98" s="77"/>
+      <c r="J98" s="77"/>
+      <c r="K98" s="77"/>
+      <c r="L98" s="77"/>
+      <c r="M98" s="77"/>
+      <c r="N98" s="77"/>
+      <c r="O98" s="77"/>
+      <c r="P98" s="77"/>
+      <c r="Q98" s="77"/>
+      <c r="R98" s="77"/>
+      <c r="S98" s="77"/>
+      <c r="T98" s="77"/>
+      <c r="U98" s="77"/>
+    </row>
+    <row r="99" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="B99" s="87"/>
-      <c r="D99" s="87"/>
-      <c r="E99" s="87"/>
-      <c r="F99" s="87"/>
-      <c r="G99" s="87"/>
-      <c r="H99" s="87"/>
-      <c r="I99" s="87"/>
-      <c r="J99" s="87"/>
-      <c r="K99" s="87"/>
-      <c r="L99" s="87"/>
-      <c r="M99" s="87"/>
-      <c r="N99" s="87"/>
-      <c r="O99" s="87"/>
-      <c r="P99" s="87"/>
-      <c r="Q99" s="87"/>
-      <c r="R99" s="87"/>
-      <c r="S99" s="87"/>
-      <c r="T99" s="87"/>
-      <c r="U99" s="87"/>
-    </row>
-    <row r="100" spans="1:21" s="2" customFormat="1" ht="14">
-      <c r="A100" s="87" t="s">
+      <c r="B99" s="77"/>
+      <c r="D99" s="77"/>
+      <c r="E99" s="77"/>
+      <c r="F99" s="77"/>
+      <c r="G99" s="77"/>
+      <c r="H99" s="77"/>
+      <c r="I99" s="77"/>
+      <c r="J99" s="77"/>
+      <c r="K99" s="77"/>
+      <c r="L99" s="77"/>
+      <c r="M99" s="77"/>
+      <c r="N99" s="77"/>
+      <c r="O99" s="77"/>
+      <c r="P99" s="77"/>
+      <c r="Q99" s="77"/>
+      <c r="R99" s="77"/>
+      <c r="S99" s="77"/>
+      <c r="T99" s="77"/>
+      <c r="U99" s="77"/>
+    </row>
+    <row r="100" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="B100" s="87"/>
-      <c r="D100" s="87"/>
-      <c r="E100" s="87"/>
-      <c r="F100" s="87"/>
-      <c r="G100" s="87"/>
-      <c r="H100" s="87"/>
-      <c r="I100" s="87"/>
-      <c r="J100" s="87"/>
-      <c r="K100" s="87"/>
-      <c r="L100" s="87"/>
-      <c r="M100" s="87"/>
-      <c r="N100" s="87"/>
-      <c r="O100" s="87"/>
-      <c r="P100" s="87"/>
-      <c r="Q100" s="87"/>
-      <c r="R100" s="87"/>
-      <c r="S100" s="87"/>
-      <c r="T100" s="87"/>
-      <c r="U100" s="87"/>
-    </row>
-    <row r="123" spans="5:10">
+      <c r="B100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
+      <c r="J100" s="77"/>
+      <c r="K100" s="77"/>
+      <c r="L100" s="77"/>
+      <c r="M100" s="77"/>
+      <c r="N100" s="77"/>
+      <c r="O100" s="77"/>
+      <c r="P100" s="77"/>
+      <c r="Q100" s="77"/>
+      <c r="R100" s="77"/>
+      <c r="S100" s="77"/>
+      <c r="T100" s="77"/>
+      <c r="U100" s="77"/>
+    </row>
+    <row r="123" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E123" s="2"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="5:10">
+    <row r="124" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E124" s="2"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="5:10">
+    <row r="125" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E125" s="2"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="5:10">
+    <row r="126" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E126" s="2"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="5:10">
+    <row r="127" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E127" s="2"/>
       <c r="J127" s="1"/>
     </row>
@@ -7891,7 +7854,6 @@
     <sortCondition ref="G58:G64"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="G3:G4"/>
     <mergeCell ref="U2:U4"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="M3:P3"/>
@@ -7909,28 +7871,29 @@
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="L5:L57">
-    <cfRule type="containsText" dxfId="14" priority="89" stopIfTrue="1" operator="containsText" text="1440x1080">
+    <cfRule type="containsText" dxfId="29" priority="89" stopIfTrue="1" operator="containsText" text="1440x1080">
       <formula>NOT(ISERROR(SEARCH("1440x1080",L5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L83">
-    <cfRule type="containsText" dxfId="13" priority="32" stopIfTrue="1" operator="containsText" text="1920x1080">
+    <cfRule type="containsText" dxfId="28" priority="32" stopIfTrue="1" operator="containsText" text="1920x1080">
       <formula>NOT(ISERROR(SEARCH("1920x1080",L5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="86" stopIfTrue="1" operator="containsText" text="960x720">
+    <cfRule type="containsText" dxfId="27" priority="86" stopIfTrue="1" operator="containsText" text="960x720">
       <formula>NOT(ISERROR(SEARCH("960x720",L5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="87" stopIfTrue="1" operator="containsText" text="1280x720">
+    <cfRule type="containsText" dxfId="26" priority="87" stopIfTrue="1" operator="containsText" text="1280x720">
       <formula>NOT(ISERROR(SEARCH("1280x720",L5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="88" stopIfTrue="1" operator="containsText" text="1920x1080">
+    <cfRule type="containsText" dxfId="25" priority="88" stopIfTrue="1" operator="containsText" text="1920x1080">
       <formula>NOT(ISERROR(SEARCH("1920x1080",L5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L82">
-    <cfRule type="containsText" dxfId="9" priority="1" stopIfTrue="1" operator="containsText" text="3840x2160">
+    <cfRule type="containsText" dxfId="24" priority="1" stopIfTrue="1" operator="containsText" text="3840x2160">
       <formula>NOT(ISERROR(SEARCH("3840x2160",L5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7944,11 +7907,6 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7961,17 +7919,17 @@
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="15" width="9.28515625" customWidth="1"/>
-    <col min="16" max="26" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="26" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>96</v>
       </c>
@@ -7983,7 +7941,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D2" s="55" t="s">
         <v>92</v>
       </c>
@@ -8009,9 +7967,9 @@
       <c r="N2" s="54"/>
       <c r="O2" s="54"/>
     </row>
-    <row r="3" spans="1:15" ht="32" customHeight="1">
+    <row r="3" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" s="62"/>
       <c r="D3" s="59" t="s">
@@ -8039,8 +7997,8 @@
       <c r="N3" s="54"/>
       <c r="O3" s="54"/>
     </row>
-    <row r="4" spans="1:15" ht="17" customHeight="1">
-      <c r="A4" s="86" t="s">
+    <row r="4" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="91" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="71" t="s">
@@ -8074,8 +8032,8 @@
       <c r="N4" s="54"/>
       <c r="O4" s="54"/>
     </row>
-    <row r="5" spans="1:15" ht="17" customHeight="1">
-      <c r="A5" s="86"/>
+    <row r="5" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="91"/>
       <c r="B5" s="71" t="s">
         <v>86</v>
       </c>
@@ -8107,8 +8065,8 @@
       <c r="N5" s="54"/>
       <c r="O5" s="54"/>
     </row>
-    <row r="6" spans="1:15" ht="17" customHeight="1">
-      <c r="A6" s="86"/>
+    <row r="6" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="91"/>
       <c r="B6" s="71" t="s">
         <v>13</v>
       </c>
@@ -8140,8 +8098,8 @@
       <c r="N6" s="54"/>
       <c r="O6" s="54"/>
     </row>
-    <row r="7" spans="1:15" ht="17" customHeight="1">
-      <c r="A7" s="86"/>
+    <row r="7" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="91"/>
       <c r="B7" s="71" t="s">
         <v>6</v>
       </c>
@@ -8171,8 +8129,8 @@
       <c r="N7" s="54"/>
       <c r="O7" s="54"/>
     </row>
-    <row r="8" spans="1:15" ht="17" customHeight="1">
-      <c r="A8" s="86"/>
+    <row r="8" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="91"/>
       <c r="B8" s="71" t="s">
         <v>10</v>
       </c>
@@ -8204,8 +8162,8 @@
       <c r="N8" s="54"/>
       <c r="O8" s="54"/>
     </row>
-    <row r="9" spans="1:15" ht="17" customHeight="1">
-      <c r="A9" s="86"/>
+    <row r="9" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="91"/>
       <c r="B9" s="71" t="s">
         <v>85</v>
       </c>
@@ -8237,8 +8195,8 @@
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
     </row>
-    <row r="10" spans="1:15" ht="17" customHeight="1">
-      <c r="A10" s="86"/>
+    <row r="10" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="91"/>
       <c r="B10" s="71" t="s">
         <v>87</v>
       </c>
@@ -8268,8 +8226,8 @@
       <c r="N10" s="54"/>
       <c r="O10" s="54"/>
     </row>
-    <row r="11" spans="1:15" ht="17" customHeight="1">
-      <c r="A11" s="86"/>
+    <row r="11" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="91"/>
       <c r="B11" s="71" t="s">
         <v>120</v>
       </c>
@@ -8301,8 +8259,8 @@
       <c r="N11" s="54"/>
       <c r="O11" s="54"/>
     </row>
-    <row r="12" spans="1:15" ht="17" customHeight="1">
-      <c r="A12" s="86"/>
+    <row r="12" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="91"/>
       <c r="B12" s="71" t="s">
         <v>115</v>
       </c>
@@ -8334,8 +8292,8 @@
       <c r="N12" s="54"/>
       <c r="O12" s="54"/>
     </row>
-    <row r="13" spans="1:15" ht="17" customHeight="1">
-      <c r="A13" s="86"/>
+    <row r="13" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="91"/>
       <c r="B13" s="71" t="s">
         <v>119</v>
       </c>
@@ -8367,7 +8325,7 @@
       <c r="N13" s="54"/>
       <c r="O13" s="54"/>
     </row>
-    <row r="14" spans="1:15" ht="17" customHeight="1">
+    <row r="14" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="67"/>
       <c r="B14" s="71"/>
       <c r="D14" s="55"/>
@@ -8383,8 +8341,8 @@
       <c r="N14" s="54"/>
       <c r="O14" s="54"/>
     </row>
-    <row r="15" spans="1:15" ht="17" customHeight="1">
-      <c r="A15" s="86" t="s">
+    <row r="15" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="91" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="71" t="s">
@@ -8418,8 +8376,8 @@
       <c r="N15" s="54"/>
       <c r="O15" s="54"/>
     </row>
-    <row r="16" spans="1:15" ht="17" customHeight="1">
-      <c r="A16" s="86"/>
+    <row r="16" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="91"/>
       <c r="B16" s="71" t="s">
         <v>86</v>
       </c>
@@ -8451,8 +8409,8 @@
       <c r="N16" s="54"/>
       <c r="O16" s="54"/>
     </row>
-    <row r="17" spans="1:15" ht="17" customHeight="1">
-      <c r="A17" s="86"/>
+    <row r="17" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="91"/>
       <c r="B17" s="71" t="s">
         <v>13</v>
       </c>
@@ -8484,8 +8442,8 @@
       <c r="N17" s="54"/>
       <c r="O17" s="54"/>
     </row>
-    <row r="18" spans="1:15" ht="17" customHeight="1">
-      <c r="A18" s="86"/>
+    <row r="18" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="91"/>
       <c r="B18" s="71" t="s">
         <v>6</v>
       </c>
@@ -8515,8 +8473,8 @@
       <c r="N18" s="54"/>
       <c r="O18" s="54"/>
     </row>
-    <row r="19" spans="1:15" ht="17" customHeight="1">
-      <c r="A19" s="86"/>
+    <row r="19" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="91"/>
       <c r="B19" s="71" t="s">
         <v>10</v>
       </c>
@@ -8548,8 +8506,8 @@
       <c r="N19" s="54"/>
       <c r="O19" s="54"/>
     </row>
-    <row r="20" spans="1:15" ht="17" customHeight="1">
-      <c r="A20" s="86"/>
+    <row r="20" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="91"/>
       <c r="B20" s="71" t="s">
         <v>85</v>
       </c>
@@ -8581,8 +8539,8 @@
       <c r="N20" s="54"/>
       <c r="O20" s="54"/>
     </row>
-    <row r="21" spans="1:15" ht="17" customHeight="1">
-      <c r="A21" s="86"/>
+    <row r="21" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="91"/>
       <c r="B21" s="71" t="s">
         <v>87</v>
       </c>
@@ -8612,8 +8570,8 @@
       <c r="N21" s="54"/>
       <c r="O21" s="54"/>
     </row>
-    <row r="22" spans="1:15" ht="17" customHeight="1">
-      <c r="A22" s="86"/>
+    <row r="22" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="91"/>
       <c r="B22" s="71" t="s">
         <v>120</v>
       </c>
@@ -8645,8 +8603,8 @@
       <c r="N22" s="54"/>
       <c r="O22" s="54"/>
     </row>
-    <row r="23" spans="1:15" ht="17" customHeight="1">
-      <c r="A23" s="86"/>
+    <row r="23" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="91"/>
       <c r="B23" s="71" t="s">
         <v>115</v>
       </c>
@@ -8678,8 +8636,8 @@
       <c r="N23" s="54"/>
       <c r="O23" s="54"/>
     </row>
-    <row r="24" spans="1:15" ht="17" customHeight="1">
-      <c r="A24" s="86"/>
+    <row r="24" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="91"/>
       <c r="B24" s="71" t="s">
         <v>119</v>
       </c>
@@ -8711,7 +8669,7 @@
       <c r="N24" s="54"/>
       <c r="O24" s="54"/>
     </row>
-    <row r="25" spans="1:15" ht="17" customHeight="1">
+    <row r="25" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="67"/>
       <c r="B25" s="71"/>
       <c r="D25" s="55"/>
@@ -8727,8 +8685,8 @@
       <c r="N25" s="54"/>
       <c r="O25" s="54"/>
     </row>
-    <row r="26" spans="1:15" ht="17" customHeight="1">
-      <c r="A26" s="86" t="s">
+    <row r="26" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="91" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="71" t="s">
@@ -8762,8 +8720,8 @@
       <c r="N26" s="54"/>
       <c r="O26" s="54"/>
     </row>
-    <row r="27" spans="1:15" ht="17" customHeight="1">
-      <c r="A27" s="86"/>
+    <row r="27" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="91"/>
       <c r="B27" s="71" t="s">
         <v>86</v>
       </c>
@@ -8795,8 +8753,8 @@
       <c r="N27" s="54"/>
       <c r="O27" s="54"/>
     </row>
-    <row r="28" spans="1:15" ht="17" customHeight="1">
-      <c r="A28" s="86"/>
+    <row r="28" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="91"/>
       <c r="B28" s="71" t="s">
         <v>13</v>
       </c>
@@ -8828,8 +8786,8 @@
       <c r="N28" s="54"/>
       <c r="O28" s="54"/>
     </row>
-    <row r="29" spans="1:15" ht="17" customHeight="1">
-      <c r="A29" s="86"/>
+    <row r="29" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="91"/>
       <c r="B29" s="71" t="s">
         <v>6</v>
       </c>
@@ -8859,8 +8817,8 @@
       <c r="N29" s="54"/>
       <c r="O29" s="54"/>
     </row>
-    <row r="30" spans="1:15" ht="17" customHeight="1">
-      <c r="A30" s="86"/>
+    <row r="30" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="91"/>
       <c r="B30" s="71" t="s">
         <v>10</v>
       </c>
@@ -8892,8 +8850,8 @@
       <c r="N30" s="54"/>
       <c r="O30" s="54"/>
     </row>
-    <row r="31" spans="1:15" ht="17" customHeight="1">
-      <c r="A31" s="86"/>
+    <row r="31" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="91"/>
       <c r="B31" s="71" t="s">
         <v>85</v>
       </c>
@@ -8925,8 +8883,8 @@
       <c r="N31" s="54"/>
       <c r="O31" s="54"/>
     </row>
-    <row r="32" spans="1:15" ht="17" customHeight="1">
-      <c r="A32" s="86"/>
+    <row r="32" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="91"/>
       <c r="B32" s="71" t="s">
         <v>87</v>
       </c>
@@ -8956,8 +8914,8 @@
       <c r="N32" s="54"/>
       <c r="O32" s="54"/>
     </row>
-    <row r="33" spans="1:15" ht="17" customHeight="1">
-      <c r="A33" s="86"/>
+    <row r="33" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="91"/>
       <c r="B33" s="71" t="s">
         <v>120</v>
       </c>
@@ -8989,8 +8947,8 @@
       <c r="N33" s="54"/>
       <c r="O33" s="54"/>
     </row>
-    <row r="34" spans="1:15" ht="17" customHeight="1">
-      <c r="A34" s="86"/>
+    <row r="34" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="91"/>
       <c r="B34" s="71" t="s">
         <v>115</v>
       </c>
@@ -9022,8 +8980,8 @@
       <c r="N34" s="54"/>
       <c r="O34" s="54"/>
     </row>
-    <row r="35" spans="1:15" ht="17" customHeight="1">
-      <c r="A35" s="86"/>
+    <row r="35" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="91"/>
       <c r="B35" s="71" t="s">
         <v>119</v>
       </c>
@@ -9055,7 +9013,7 @@
       <c r="N35" s="54"/>
       <c r="O35" s="54"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C36" s="4"/>
       <c r="D36" s="2"/>
       <c r="E36" s="54"/>
@@ -9070,7 +9028,7 @@
       <c r="N36" s="54"/>
       <c r="O36" s="54"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="2"/>
@@ -9086,7 +9044,7 @@
       <c r="N37" s="54"/>
       <c r="O37" s="54"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -9100,7 +9058,7 @@
       <c r="M38" s="53"/>
       <c r="N38" s="53"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="2"/>
@@ -9116,7 +9074,7 @@
       <c r="N39" s="54"/>
       <c r="O39" s="54"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E40" s="54"/>
       <c r="F40" s="54"/>
       <c r="G40" s="54"/>
@@ -9129,7 +9087,7 @@
       <c r="N40" s="54"/>
       <c r="O40" s="54"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G41" s="53"/>
       <c r="H41" s="53"/>
       <c r="J41" s="54"/>
@@ -9139,7 +9097,7 @@
       <c r="N41" s="54"/>
       <c r="O41" s="54"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E42" s="54"/>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
@@ -9152,7 +9110,7 @@
       <c r="N42" s="54"/>
       <c r="O42" s="54"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -9168,7 +9126,7 @@
       <c r="N43" s="54"/>
       <c r="O43" s="54"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="2"/>
@@ -9184,7 +9142,7 @@
       <c r="N44" s="54"/>
       <c r="O44" s="54"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="2"/>
@@ -9200,7 +9158,7 @@
       <c r="N45" s="54"/>
       <c r="O45" s="54"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="2"/>
@@ -9216,7 +9174,7 @@
       <c r="N46" s="54"/>
       <c r="O46" s="54"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -9232,7 +9190,7 @@
       <c r="N47" s="54"/>
       <c r="O47" s="54"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="2"/>
@@ -9248,7 +9206,7 @@
       <c r="N48" s="54"/>
       <c r="O48" s="54"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
       <c r="E49" s="54"/>
       <c r="F49" s="54"/>
       <c r="G49" s="54"/>
@@ -9261,7 +9219,7 @@
       <c r="N49" s="54"/>
       <c r="O49" s="54"/>
     </row>
-    <row r="50" spans="2:15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
       <c r="E50" s="53"/>
       <c r="F50" s="53"/>
       <c r="G50" s="53"/>
@@ -9273,7 +9231,7 @@
       <c r="N50" s="54"/>
       <c r="O50" s="54"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
       <c r="E51" s="54"/>
       <c r="F51" s="54"/>
       <c r="G51" s="54"/>
@@ -9286,7 +9244,7 @@
       <c r="N51" s="54"/>
       <c r="O51" s="54"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -9302,7 +9260,7 @@
       <c r="N52" s="54"/>
       <c r="O52" s="54"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="2"/>
@@ -9318,7 +9276,7 @@
       <c r="N53" s="54"/>
       <c r="O53" s="54"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="2"/>
@@ -9334,7 +9292,7 @@
       <c r="N54" s="54"/>
       <c r="O54" s="54"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="2"/>
@@ -9350,7 +9308,7 @@
       <c r="N55" s="54"/>
       <c r="O55" s="54"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -9366,7 +9324,7 @@
       <c r="N56" s="54"/>
       <c r="O56" s="54"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="2"/>
@@ -9376,77 +9334,77 @@
       <c r="H57" s="54"/>
       <c r="I57" s="54"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.15">
       <c r="E58" s="54"/>
       <c r="F58" s="54"/>
       <c r="G58" s="54"/>
       <c r="H58" s="54"/>
       <c r="I58" s="54"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.15">
       <c r="E59" s="54"/>
       <c r="F59" s="54"/>
       <c r="G59" s="54"/>
       <c r="H59" s="54"/>
       <c r="I59" s="54"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
       <c r="E60" s="54"/>
       <c r="F60" s="54"/>
       <c r="G60" s="54"/>
       <c r="H60" s="54"/>
       <c r="I60" s="54"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.15">
       <c r="E61" s="54"/>
       <c r="F61" s="54"/>
       <c r="G61" s="54"/>
       <c r="H61" s="54"/>
       <c r="I61" s="54"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.15">
       <c r="E62" s="54"/>
       <c r="F62" s="54"/>
       <c r="G62" s="54"/>
       <c r="H62" s="54"/>
       <c r="I62" s="54"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.15">
       <c r="E63" s="54"/>
       <c r="F63" s="54"/>
       <c r="G63" s="54"/>
       <c r="H63" s="54"/>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.15">
       <c r="E64" s="54"/>
       <c r="F64" s="54"/>
       <c r="G64" s="54"/>
       <c r="H64" s="54"/>
       <c r="I64" s="54"/>
     </row>
-    <row r="65" spans="5:9">
+    <row r="65" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E65" s="54"/>
       <c r="F65" s="54"/>
       <c r="G65" s="54"/>
       <c r="H65" s="54"/>
       <c r="I65" s="54"/>
     </row>
-    <row r="66" spans="5:9">
+    <row r="66" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E66" s="54"/>
       <c r="F66" s="54"/>
       <c r="G66" s="54"/>
       <c r="H66" s="54"/>
       <c r="I66" s="54"/>
     </row>
-    <row r="67" spans="5:9">
+    <row r="67" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E67" s="54"/>
       <c r="F67" s="54"/>
       <c r="G67" s="54"/>
       <c r="H67" s="54"/>
       <c r="I67" s="54"/>
     </row>
-    <row r="68" spans="5:9">
+    <row r="68" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E68" s="54"/>
       <c r="F68" s="54"/>
       <c r="G68" s="54"/>
@@ -9461,21 +9419,21 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="B4:B35">
-    <cfRule type="containsText" dxfId="8" priority="1" stopIfTrue="1" operator="containsText" text="3840x2160">
+    <cfRule type="containsText" dxfId="23" priority="1" stopIfTrue="1" operator="containsText" text="3840x2160">
       <formula>NOT(ISERROR(SEARCH("3840x2160",B4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" stopIfTrue="1" operator="containsText" text="1280x720">
+    <cfRule type="containsText" dxfId="22" priority="3" stopIfTrue="1" operator="containsText" text="1280x720">
       <formula>NOT(ISERROR(SEARCH("1280x720",B4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" stopIfTrue="1" operator="containsText" text="1920x1080">
+    <cfRule type="containsText" dxfId="21" priority="4" stopIfTrue="1" operator="containsText" text="1920x1080">
       <formula>NOT(ISERROR(SEARCH("1920x1080",B4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" stopIfTrue="1" operator="containsText" text="1440x1080">
+    <cfRule type="containsText" dxfId="20" priority="5" stopIfTrue="1" operator="containsText" text="1440x1080">
       <formula>NOT(ISERROR(SEARCH("1440x1080",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B35">
-    <cfRule type="containsText" dxfId="4" priority="2" stopIfTrue="1" operator="containsText" text="960x720">
+    <cfRule type="containsText" dxfId="19" priority="2" stopIfTrue="1" operator="containsText" text="960x720">
       <formula>NOT(ISERROR(SEARCH("960x720",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9488,50 +9446,46 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="60" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="73" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="60" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="60" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="60" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11" style="73" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="60" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="60" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23">
+    <row r="1" spans="1:6" ht="25" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>178</v>
       </c>
       <c r="D1" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="70" customFormat="1" ht="23" customHeight="1">
+      <c r="E1" s="97" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="70" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="69" t="s">
         <v>154</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D3" s="74" t="s">
         <v>164</v>
@@ -9543,8 +9497,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" customHeight="1">
-      <c r="A4" s="86" t="s">
+    <row r="4" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="91" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="68" t="s">
@@ -9563,8 +9517,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13" customHeight="1">
-      <c r="A5" s="86"/>
+    <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>176</v>
       </c>
@@ -9581,28 +9535,28 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13" customHeight="1">
-      <c r="A6" s="86"/>
+    <row r="6" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="91"/>
       <c r="B6" s="68" t="s">
         <v>176</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D6" s="49" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F6" s="60">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13" customHeight="1">
-      <c r="A7" s="86"/>
+    <row r="7" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="91"/>
       <c r="B7" s="68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="61" t="s">
         <v>161</v>
@@ -9617,10 +9571,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" customHeight="1">
-      <c r="A8" s="86"/>
+    <row r="8" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="91"/>
       <c r="B8" s="68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="61" t="s">
         <v>163</v>
@@ -9635,10 +9589,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" customHeight="1">
-      <c r="A9" s="86"/>
+    <row r="9" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="91"/>
       <c r="B9" s="68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" s="61" t="s">
         <v>162</v>
@@ -9653,49 +9607,49 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13" customHeight="1">
-      <c r="A10" s="86"/>
+    <row r="10" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="91"/>
       <c r="B10" s="68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D10" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F10" s="60">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" customHeight="1">
-      <c r="A11" s="86"/>
+    <row r="11" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="91"/>
       <c r="B11" s="68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D11" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F11" s="60">
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13" customHeight="1">
+    <row r="12" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="72"/>
       <c r="B12" s="65"/>
       <c r="D12" s="49"/>
     </row>
-    <row r="13" spans="1:7" ht="13" customHeight="1">
-      <c r="A13" s="86" t="s">
+    <row r="13" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="91" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="68" t="s">
@@ -9714,8 +9668,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13" customHeight="1">
-      <c r="A14" s="86"/>
+    <row r="14" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="91"/>
       <c r="B14" s="68" t="s">
         <v>172</v>
       </c>
@@ -9732,26 +9686,26 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" customHeight="1">
-      <c r="A15" s="86"/>
+    <row r="15" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="91"/>
       <c r="B15" s="68" t="s">
         <v>172</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" s="49" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F15" s="60">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" customHeight="1">
-      <c r="A16" s="86"/>
+    <row r="16" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="91"/>
       <c r="B16" s="68" t="s">
         <v>152</v>
       </c>
@@ -9768,10 +9722,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13" customHeight="1">
-      <c r="A17" s="86"/>
+    <row r="17" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="91"/>
       <c r="B17" s="68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" s="61" t="s">
         <v>160</v>
@@ -9786,10 +9740,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13" customHeight="1">
-      <c r="A18" s="86"/>
+    <row r="18" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="91"/>
       <c r="B18" s="68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="61" t="s">
         <v>159</v>
@@ -9804,48 +9758,48 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13" customHeight="1">
-      <c r="A19" s="86"/>
+    <row r="19" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="91"/>
       <c r="B19" s="68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D19" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F19" s="60">
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13" customHeight="1">
-      <c r="A20" s="86"/>
+    <row r="20" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="91"/>
       <c r="B20" s="68" t="s">
         <v>152</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D20" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F20" s="60">
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13" customHeight="1">
+    <row r="21" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="65"/>
     </row>
-    <row r="22" spans="1:6" ht="13" customHeight="1">
-      <c r="A22" s="86" t="s">
-        <v>195</v>
+    <row r="22" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="91" t="s">
+        <v>194</v>
       </c>
       <c r="B22" s="68" t="s">
         <v>174</v>
@@ -9863,8 +9817,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13" customHeight="1">
-      <c r="A23" s="86"/>
+    <row r="23" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="91"/>
       <c r="B23" s="68" t="s">
         <v>174</v>
       </c>
@@ -9881,26 +9835,26 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13" customHeight="1">
-      <c r="A24" s="86"/>
+    <row r="24" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="91"/>
       <c r="B24" s="68" t="s">
         <v>174</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D24" s="49" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F24" s="60">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13" customHeight="1">
-      <c r="A25" s="86"/>
+    <row r="25" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="91"/>
       <c r="B25" s="68" t="s">
         <v>168</v>
       </c>
@@ -9917,10 +9871,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13" customHeight="1">
-      <c r="A26" s="86"/>
+    <row r="26" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="91"/>
       <c r="B26" s="68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C26" s="61" t="s">
         <v>158</v>
@@ -9935,10 +9889,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13" customHeight="1">
-      <c r="A27" s="86"/>
+    <row r="27" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="91"/>
       <c r="B27" s="68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C27" s="61" t="s">
         <v>157</v>
@@ -9953,47 +9907,47 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13" customHeight="1">
-      <c r="A28" s="86"/>
+    <row r="28" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="91"/>
       <c r="B28" s="68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D28" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F28" s="60">
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13" customHeight="1">
-      <c r="A29" s="86"/>
+    <row r="29" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="91"/>
       <c r="B29" s="68" t="s">
         <v>168</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D29" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F29" s="60">
         <v>440</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13" customHeight="1">
+    <row r="30" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="65"/>
     </row>
-    <row r="31" spans="1:6" ht="13" customHeight="1">
-      <c r="A31" s="86" t="s">
+    <row r="31" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="91" t="s">
         <v>51</v>
       </c>
       <c r="B31" s="68" t="s">
@@ -10012,8 +9966,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13" customHeight="1">
-      <c r="A32" s="86"/>
+    <row r="32" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="91"/>
       <c r="B32" s="68" t="s">
         <v>170</v>
       </c>
@@ -10030,26 +9984,26 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13" customHeight="1">
-      <c r="A33" s="86"/>
+    <row r="33" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="91"/>
       <c r="B33" s="68" t="s">
         <v>170</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D33" s="49" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F33" s="60">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13" customHeight="1">
-      <c r="A34" s="86"/>
+    <row r="34" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="91"/>
       <c r="B34" s="68" t="s">
         <v>165</v>
       </c>
@@ -10066,8 +10020,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13" customHeight="1">
-      <c r="A35" s="86"/>
+    <row r="35" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="91"/>
       <c r="B35" s="68" t="s">
         <v>165</v>
       </c>
@@ -10084,29 +10038,29 @@
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13" customHeight="1">
-      <c r="A36" s="86"/>
+    <row r="36" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="91"/>
       <c r="B36" s="68" t="s">
         <v>165</v>
       </c>
       <c r="C36" s="61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D36" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F36" s="60">
         <v>367</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13" customHeight="1">
+    <row r="37" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="65"/>
     </row>
-    <row r="38" spans="1:6" ht="13" customHeight="1">
-      <c r="A38" s="86" t="s">
+    <row r="38" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="91" t="s">
         <v>88</v>
       </c>
       <c r="B38" s="68" t="s">
@@ -10125,8 +10079,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13" customHeight="1">
-      <c r="A39" s="86"/>
+    <row r="39" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="91"/>
       <c r="B39" s="68" t="s">
         <v>153</v>
       </c>
@@ -10143,28 +10097,28 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13" customHeight="1">
-      <c r="A40" s="86"/>
+    <row r="40" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="91"/>
       <c r="B40" s="68" t="s">
         <v>153</v>
       </c>
       <c r="C40" s="61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D40" s="49" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F40" s="60">
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13" customHeight="1">
-      <c r="A41" s="86"/>
+    <row r="41" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="91"/>
       <c r="B41" s="68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C41" s="61" t="s">
         <v>156</v>
@@ -10179,10 +10133,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13" customHeight="1">
-      <c r="A42" s="86"/>
+    <row r="42" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="91"/>
       <c r="B42" s="68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C42" s="61" t="s">
         <v>155</v>
@@ -10197,96 +10151,96 @@
         <v>291</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13" customHeight="1">
-      <c r="A43" s="86"/>
+    <row r="43" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="91"/>
       <c r="B43" s="68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D43" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F43" s="60">
         <v>440</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13" customHeight="1"/>
-    <row r="45" spans="1:6" ht="13" customHeight="1"/>
-    <row r="46" spans="1:6" ht="13" customHeight="1"/>
-    <row r="47" spans="1:6" ht="13" customHeight="1">
+    <row r="44" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="49"/>
     </row>
-    <row r="48" spans="1:6" ht="13" customHeight="1"/>
-    <row r="49" spans="2:4" ht="13" customHeight="1"/>
-    <row r="50" spans="2:4" ht="13" customHeight="1"/>
-    <row r="51" spans="2:4" ht="13" customHeight="1">
+    <row r="48" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" spans="2:4" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" spans="2:4" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="2:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="49"/>
     </row>
-    <row r="52" spans="2:4" ht="13" customHeight="1"/>
-    <row r="53" spans="2:4" ht="13" customHeight="1"/>
-    <row r="54" spans="2:4" ht="13" customHeight="1"/>
-    <row r="55" spans="2:4" ht="13" customHeight="1"/>
-    <row r="56" spans="2:4" ht="13" customHeight="1"/>
-    <row r="57" spans="2:4" ht="13" customHeight="1"/>
-    <row r="58" spans="2:4" ht="13" customHeight="1"/>
-    <row r="59" spans="2:4" ht="13" customHeight="1"/>
-    <row r="60" spans="2:4" ht="13" customHeight="1">
+    <row r="52" spans="2:4" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" spans="2:4" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="2:4" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="2:4" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="2:4" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="2:4" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="2:4" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="2:4" ht="13" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="2:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="61"/>
       <c r="C60" s="61"/>
       <c r="D60" s="75"/>
     </row>
-    <row r="61" spans="2:4" ht="13" customHeight="1">
+    <row r="61" spans="2:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="61"/>
       <c r="C61" s="61"/>
     </row>
-    <row r="62" spans="2:4" ht="13" customHeight="1">
+    <row r="62" spans="2:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="61"/>
       <c r="C62" s="61"/>
     </row>
-    <row r="63" spans="2:4" ht="13" customHeight="1">
+    <row r="63" spans="2:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="61"/>
       <c r="C63" s="61"/>
     </row>
-    <row r="64" spans="2:4" ht="13" customHeight="1">
+    <row r="64" spans="2:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="61"/>
       <c r="C64" s="61"/>
     </row>
-    <row r="65" spans="3:3" ht="13" customHeight="1">
+    <row r="65" spans="3:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="61"/>
     </row>
-    <row r="66" spans="3:3" ht="13" customHeight="1">
+    <row r="66" spans="3:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="61"/>
     </row>
-    <row r="67" spans="3:3" ht="13" customHeight="1">
+    <row r="67" spans="3:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="61"/>
     </row>
-    <row r="68" spans="3:3" ht="13" customHeight="1">
+    <row r="68" spans="3:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="61"/>
     </row>
-    <row r="69" spans="3:3" ht="13" customHeight="1">
+    <row r="69" spans="3:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="61"/>
     </row>
-    <row r="70" spans="3:3" ht="13" customHeight="1">
+    <row r="70" spans="3:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="61"/>
     </row>
-    <row r="71" spans="3:3" ht="13" customHeight="1">
+    <row r="71" spans="3:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="61"/>
     </row>
-    <row r="72" spans="3:3" ht="13" customHeight="1">
+    <row r="72" spans="3:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="61"/>
     </row>
-    <row r="73" spans="3:3" ht="13" customHeight="1">
+    <row r="73" spans="3:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="61"/>
     </row>
-    <row r="74" spans="3:3" ht="13" customHeight="1">
+    <row r="74" spans="3:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="61"/>
     </row>
-    <row r="75" spans="3:3" ht="13" customHeight="1">
+    <row r="75" spans="3:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="61"/>
     </row>
   </sheetData>
@@ -10301,18 +10255,18 @@
     <mergeCell ref="A4:A11"/>
   </mergeCells>
   <conditionalFormatting sqref="D22:D29 D31:D36 D51 D38:D43 D47 D4:D20">
-    <cfRule type="containsText" dxfId="3" priority="6" stopIfTrue="1" operator="containsText" text="1280x720">
+    <cfRule type="containsText" dxfId="18" priority="6" stopIfTrue="1" operator="containsText" text="1280x720">
       <formula>NOT(ISERROR(SEARCH("1280x720",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="7" stopIfTrue="1" operator="containsText" text="1920x1080">
+    <cfRule type="containsText" dxfId="17" priority="7" stopIfTrue="1" operator="containsText" text="1920x1080">
       <formula>NOT(ISERROR(SEARCH("1920x1080",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="8" stopIfTrue="1" operator="containsText" text="1440x1080">
+    <cfRule type="containsText" dxfId="16" priority="8" stopIfTrue="1" operator="containsText" text="1440x1080">
       <formula>NOT(ISERROR(SEARCH("1440x1080",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D29 D31:D36 D51 D38:D43 D47 D4:D20">
-    <cfRule type="containsText" dxfId="0" priority="5" stopIfTrue="1" operator="containsText" text="960x720">
+    <cfRule type="containsText" dxfId="15" priority="5" stopIfTrue="1" operator="containsText" text="960x720">
       <formula>NOT(ISERROR(SEARCH("960x720",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10321,10 +10275,1042 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="4" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="25" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="60"/>
+      <c r="K1" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D2" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="J2" s="55">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D3" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="95" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D4" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B5" s="93" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="93" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3">
+        <v>123</v>
+      </c>
+      <c r="H6" s="3">
+        <v>186</v>
+      </c>
+      <c r="I6" s="3">
+        <v>186</v>
+      </c>
+      <c r="J6" s="3">
+        <v>373</v>
+      </c>
+      <c r="K6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="99"/>
+      <c r="B7" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3">
+        <v>55</v>
+      </c>
+      <c r="G7" s="3">
+        <v>269</v>
+      </c>
+      <c r="H7" s="3">
+        <v>269</v>
+      </c>
+      <c r="I7" s="3">
+        <v>269</v>
+      </c>
+      <c r="J7" s="3">
+        <v>537</v>
+      </c>
+      <c r="K7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="99"/>
+      <c r="B8" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3">
+        <v>36</v>
+      </c>
+      <c r="F8" s="3">
+        <v>144</v>
+      </c>
+      <c r="G8" s="3">
+        <v>462</v>
+      </c>
+      <c r="H8" s="3">
+        <v>699</v>
+      </c>
+      <c r="I8" s="3">
+        <v>699</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1399</v>
+      </c>
+      <c r="K8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="99"/>
+      <c r="B9" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="3">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3">
+        <v>39</v>
+      </c>
+      <c r="F9" s="3">
+        <v>153</v>
+      </c>
+      <c r="G9" s="3">
+        <v>493</v>
+      </c>
+      <c r="H9" s="3">
+        <v>746</v>
+      </c>
+      <c r="I9" s="3">
+        <v>746</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1492</v>
+      </c>
+      <c r="K9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B10" s="93"/>
+      <c r="M10" s="72"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3">
+        <v>129</v>
+      </c>
+      <c r="H11" s="3">
+        <v>194</v>
+      </c>
+      <c r="I11" s="3">
+        <v>194</v>
+      </c>
+      <c r="J11" s="3">
+        <v>388</v>
+      </c>
+      <c r="K11" t="s">
+        <v>261</v>
+      </c>
+      <c r="M11" s="72"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="99"/>
+      <c r="B12" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3">
+        <v>57</v>
+      </c>
+      <c r="G12" s="3">
+        <v>185</v>
+      </c>
+      <c r="H12" s="3">
+        <v>280</v>
+      </c>
+      <c r="I12" s="3">
+        <v>280</v>
+      </c>
+      <c r="J12" s="3">
+        <v>560</v>
+      </c>
+      <c r="K12" t="s">
+        <v>261</v>
+      </c>
+      <c r="M12" s="72"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="99"/>
+      <c r="B13" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="3">
+        <v>9</v>
+      </c>
+      <c r="E13" s="96">
+        <v>38</v>
+      </c>
+      <c r="F13" s="3">
+        <v>150</v>
+      </c>
+      <c r="G13" s="3">
+        <v>482</v>
+      </c>
+      <c r="H13" s="3">
+        <v>728</v>
+      </c>
+      <c r="I13" s="3">
+        <v>728</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1457</v>
+      </c>
+      <c r="K13" t="s">
+        <v>259</v>
+      </c>
+      <c r="M13" s="72"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="99"/>
+      <c r="B14" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3">
+        <v>160</v>
+      </c>
+      <c r="G14" s="3">
+        <v>514</v>
+      </c>
+      <c r="H14" s="3">
+        <v>777</v>
+      </c>
+      <c r="I14" s="3">
+        <v>777</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1554</v>
+      </c>
+      <c r="K14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="93"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="99" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="93" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3">
+        <v>48</v>
+      </c>
+      <c r="G16" s="3">
+        <v>154</v>
+      </c>
+      <c r="H16" s="3">
+        <v>233</v>
+      </c>
+      <c r="I16" s="3">
+        <v>233</v>
+      </c>
+      <c r="J16" s="3">
+        <v>466</v>
+      </c>
+      <c r="K16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="99"/>
+      <c r="B17" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="E17" s="3">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3">
+        <v>69</v>
+      </c>
+      <c r="G17" s="3">
+        <v>222</v>
+      </c>
+      <c r="H17" s="3">
+        <v>336</v>
+      </c>
+      <c r="I17" s="3">
+        <v>336</v>
+      </c>
+      <c r="J17" s="3">
+        <v>671</v>
+      </c>
+      <c r="K17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="99"/>
+      <c r="B18" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="3">
+        <v>11</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45</v>
+      </c>
+      <c r="F18" s="3">
+        <v>180</v>
+      </c>
+      <c r="G18" s="3">
+        <v>578</v>
+      </c>
+      <c r="H18" s="3">
+        <v>874</v>
+      </c>
+      <c r="I18" s="3">
+        <v>874</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1749</v>
+      </c>
+      <c r="K18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="99"/>
+      <c r="B19" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="3">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3">
+        <v>48</v>
+      </c>
+      <c r="F19" s="3">
+        <v>192</v>
+      </c>
+      <c r="G19" s="3">
+        <v>616</v>
+      </c>
+      <c r="H19" s="3">
+        <v>933</v>
+      </c>
+      <c r="I19" s="3">
+        <v>933</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1865</v>
+      </c>
+      <c r="K19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="93"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="93" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="E21" s="3">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3">
+        <v>77</v>
+      </c>
+      <c r="G21" s="3">
+        <v>247</v>
+      </c>
+      <c r="H21" s="3">
+        <v>373</v>
+      </c>
+      <c r="I21" s="3">
+        <v>373</v>
+      </c>
+      <c r="J21" s="3">
+        <v>746</v>
+      </c>
+      <c r="K21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="99"/>
+      <c r="B22" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>28</v>
+      </c>
+      <c r="F22" s="3">
+        <v>110</v>
+      </c>
+      <c r="G22" s="3">
+        <v>355</v>
+      </c>
+      <c r="H22" s="3">
+        <v>538</v>
+      </c>
+      <c r="I22" s="3">
+        <v>538</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1074</v>
+      </c>
+      <c r="K22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="99"/>
+      <c r="B23" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="3">
+        <v>17</v>
+      </c>
+      <c r="E23" s="3">
+        <v>72</v>
+      </c>
+      <c r="F23" s="3">
+        <v>288</v>
+      </c>
+      <c r="G23" s="3">
+        <v>925</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1398</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1398</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2798</v>
+      </c>
+      <c r="K23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="99"/>
+      <c r="B24" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="3">
+        <v>19</v>
+      </c>
+      <c r="E24" s="3">
+        <v>77</v>
+      </c>
+      <c r="F24" s="3">
+        <v>307</v>
+      </c>
+      <c r="G24" s="3">
+        <v>986</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1493</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1493</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2984</v>
+      </c>
+      <c r="K24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B25" s="93"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="93" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E26" s="3">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3">
+        <v>80</v>
+      </c>
+      <c r="G26" s="3">
+        <v>257</v>
+      </c>
+      <c r="H26" s="3">
+        <v>388</v>
+      </c>
+      <c r="I26" s="3">
+        <v>388</v>
+      </c>
+      <c r="J26" s="3">
+        <v>777</v>
+      </c>
+      <c r="K26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="99"/>
+      <c r="B27" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C27" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="E27" s="3">
+        <v>29</v>
+      </c>
+      <c r="F27" s="3">
+        <v>115</v>
+      </c>
+      <c r="G27" s="3">
+        <v>370</v>
+      </c>
+      <c r="H27" s="3">
+        <v>560</v>
+      </c>
+      <c r="I27" s="3">
+        <v>560</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1119</v>
+      </c>
+      <c r="K27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="99"/>
+      <c r="B28" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="3">
+        <v>18</v>
+      </c>
+      <c r="E28" s="3">
+        <v>75</v>
+      </c>
+      <c r="F28" s="3">
+        <v>300</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1156</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1457</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1457</v>
+      </c>
+      <c r="J28" s="3">
+        <v>2915</v>
+      </c>
+      <c r="K28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="99"/>
+      <c r="B29" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="3">
+        <v>20</v>
+      </c>
+      <c r="E29" s="3">
+        <v>80</v>
+      </c>
+      <c r="F29" s="3">
+        <v>319</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1027</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1555</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1555</v>
+      </c>
+      <c r="J29" s="3">
+        <v>3108</v>
+      </c>
+      <c r="K29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B30" s="93"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="93" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="3">
+        <v>6</v>
+      </c>
+      <c r="E31" s="3">
+        <v>24</v>
+      </c>
+      <c r="F31" s="3">
+        <v>96</v>
+      </c>
+      <c r="G31" s="3">
+        <v>309</v>
+      </c>
+      <c r="H31" s="3">
+        <v>466</v>
+      </c>
+      <c r="I31" s="3">
+        <v>466</v>
+      </c>
+      <c r="J31" s="3">
+        <v>932</v>
+      </c>
+      <c r="K31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="99"/>
+      <c r="B32" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C32" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="E32" s="3">
+        <v>35</v>
+      </c>
+      <c r="F32" s="3">
+        <v>138</v>
+      </c>
+      <c r="G32" s="3">
+        <v>444</v>
+      </c>
+      <c r="H32" s="3">
+        <v>672</v>
+      </c>
+      <c r="I32" s="3">
+        <v>672</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1343</v>
+      </c>
+      <c r="K32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" s="99"/>
+      <c r="B33" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="3">
+        <v>22</v>
+      </c>
+      <c r="E33" s="3">
+        <v>90</v>
+      </c>
+      <c r="F33" s="3">
+        <v>360</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1156</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1748</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1748</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3498</v>
+      </c>
+      <c r="K33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="99"/>
+      <c r="B34" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="C34" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="3">
+        <v>24</v>
+      </c>
+      <c r="E34" s="3">
+        <v>96</v>
+      </c>
+      <c r="F34" s="3">
+        <v>383</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1233</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1866</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1866</v>
+      </c>
+      <c r="J34" s="3">
+        <v>3730</v>
+      </c>
+      <c r="K34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="98" x14ac:dyDescent="0.15">
+      <c r="A36" s="100"/>
+      <c r="F36" s="98" t="s">
+        <v>263</v>
+      </c>
+      <c r="G36" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="H36" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="I36" s="98" t="s">
+        <v>266</v>
+      </c>
+      <c r="J36" s="98" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A26:A29"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C6:C8 C11:C12 C14 C16:C19 C21:C24 C31:C34 C26:C29">
+    <cfRule type="containsText" dxfId="14" priority="26" stopIfTrue="1" operator="containsText" text="3840x2160">
+      <formula>NOT(ISERROR(SEARCH("3840x2160",C6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="28" stopIfTrue="1" operator="containsText" text="1280x720">
+      <formula>NOT(ISERROR(SEARCH("1280x720",C6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="29" stopIfTrue="1" operator="containsText" text="1920x1080">
+      <formula>NOT(ISERROR(SEARCH("1920x1080",C6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="30" stopIfTrue="1" operator="containsText" text="1440x1080">
+      <formula>NOT(ISERROR(SEARCH("1440x1080",C6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C8 C11:C12 C14 C16:C19 C21:C24 C31:C34 C26:C29">
+    <cfRule type="containsText" dxfId="10" priority="27" stopIfTrue="1" operator="containsText" text="960x720">
+      <formula>NOT(ISERROR(SEARCH("960x720",C6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="9" priority="16" stopIfTrue="1" operator="containsText" text="3840x2160">
+      <formula>NOT(ISERROR(SEARCH("3840x2160",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="18" stopIfTrue="1" operator="containsText" text="1280x720">
+      <formula>NOT(ISERROR(SEARCH("1280x720",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="19" stopIfTrue="1" operator="containsText" text="1920x1080">
+      <formula>NOT(ISERROR(SEARCH("1920x1080",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="20" stopIfTrue="1" operator="containsText" text="1440x1080">
+      <formula>NOT(ISERROR(SEARCH("1440x1080",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="5" priority="17" stopIfTrue="1" operator="containsText" text="960x720">
+      <formula>NOT(ISERROR(SEARCH("960x720",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="containsText" dxfId="4" priority="6" stopIfTrue="1" operator="containsText" text="3840x2160">
+      <formula>NOT(ISERROR(SEARCH("3840x2160",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="8" stopIfTrue="1" operator="containsText" text="1280x720">
+      <formula>NOT(ISERROR(SEARCH("1280x720",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="9" stopIfTrue="1" operator="containsText" text="1920x1080">
+      <formula>NOT(ISERROR(SEARCH("1920x1080",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="10" stopIfTrue="1" operator="containsText" text="1440x1080">
+      <formula>NOT(ISERROR(SEARCH("1440x1080",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="containsText" dxfId="0" priority="7" stopIfTrue="1" operator="containsText" text="960x720">
+      <formula>NOT(ISERROR(SEARCH("960x720",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="E2" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>